--- a/biology/Zoologie/Castillonnaise_(race_ovine)/Castillonnaise_(race_ovine).xlsx
+++ b/biology/Zoologie/Castillonnaise_(race_ovine)/Castillonnaise_(race_ovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Castillonnaise est une race ovine française à faible effectif.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle fait partie des races pyrénéennes à laine frisée présentes dans les Pyrénées centrales. C'est en 1907 qu'apparaît le nom de « castillonnaise » à côté de la tarasconnaise, originaire de l'Est de l'Ariège. Son berceau est le terroir du Castillonnais centré autour Castillon-en-Couserans, à l'ouest de l'Ariège. 
 Au XIXe siècle, sa viande était réputée, mais les croisements améliorateurs ont entraîné une augmentation de la taille de sa cousine tarasconnaise. Elle a pris le dessus auprès des acheteurs recherchant des gigots de bonne taille. 
@@ -547,7 +561,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race ovine de taille réduite: 50-65 cm pour 45-55 kg pour la brebis et 60-70 cm pour 60–70 kg pour le bélier. Le mâle porte des cornes en spirales étirées et la brebis est motte.
 La peau est grise, portant une laine blanche. La tête et les pattes sont tachetées de rouge cuivre. Elle s'appelle aussi tête rouge.
@@ -579,7 +595,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race à viande. Elle produit des agneaux de lait légers en automne : ils sont engraissés l'hiver. Les pâturages sont trop pauvres pour élever les agneaux en estive, et il est nécessaire de les vendre avant qu'ils ne mangent trop d'un foin rare.
 Ils sont vendus à deux mois à 18-22 kg pour être engraissés en Espagne. La laine est grossière mais permet une bonne protection en plein air à l'estive. C'est une race de montagne, marcheuse et résistante.
